--- a/_resource/excel/option.xlsx
+++ b/_resource/excel/option.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26340" windowHeight="13065"/>
+    <workbookView windowWidth="26310" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="option" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Description</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>disconnettime</t>
+  </si>
+  <si>
+    <t>玩家定时保存数据库时间( 单位: 毫秒 )</t>
+  </si>
+  <si>
+    <t>playersavetime</t>
   </si>
 </sst>
 </file>
@@ -174,9 +180,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -219,11 +225,93 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,80 +324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,14 +346,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -348,15 +355,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,19 +418,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,163 +574,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,6 +627,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -630,10 +651,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -654,32 +716,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -688,183 +724,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1399,7 +1405,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1566,11 +1572,22 @@
       </c>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:6">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="21">
+        <v>0</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E8" s="21"/>
-      <c r="F8" s="23"/>
+      <c r="F8" s="23">
+        <v>60000</v>
+      </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:6">
       <c r="A9" s="21"/>

--- a/_resource/excel/option.xlsx
+++ b/_resource/excel/option.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13065"/>
+    <workbookView windowWidth="26340" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="option" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Description</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>playersavetime</t>
+  </si>
+  <si>
+    <t>充值查询的次数</t>
+  </si>
+  <si>
+    <t>payquerycount</t>
+  </si>
+  <si>
+    <t>充值查询的间隔时间</t>
+  </si>
+  <si>
+    <t>payquerytime</t>
   </si>
 </sst>
 </file>
@@ -180,12 +192,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -211,12 +223,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -228,12 +234,49 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +290,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -255,25 +330,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,54 +345,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,27 +361,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -424,181 +430,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,6 +633,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -642,26 +672,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,34 +716,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,8 +725,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,152 +735,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -947,22 +953,19 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1405,7 +1408,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1452,8 +1455,8 @@
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
@@ -1479,8 +1482,8 @@
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -1493,8 +1496,8 @@
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
@@ -1590,19 +1593,40 @@
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:6">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E9" s="21"/>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="15" spans="1:6">
-      <c r="A10" s="24"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
+      <c r="F9" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" spans="1:6">
+      <c r="A10" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="21">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="E10" s="21"/>
-      <c r="F10" s="25"/>
+      <c r="F10" s="23">
+        <v>10000</v>
+      </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:6">
       <c r="A11" s="21"/>
@@ -1626,7 +1650,7 @@
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="26"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="15" spans="1:6">
       <c r="A14" s="21"/>
@@ -1634,7 +1658,7 @@
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="25"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:6">
       <c r="A15" s="21"/>
@@ -1693,7 +1717,7 @@
       <c r="F21" s="23"/>
     </row>
     <row r="22" s="5" customFormat="1" spans="1:6">
-      <c r="A22" s="27"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
@@ -1931,7 +1955,7 @@
       <c r="F51" s="19"/>
     </row>
     <row r="52" s="4" customFormat="1" spans="1:6">
-      <c r="A52" s="28"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="18"/>
@@ -1939,7 +1963,7 @@
       <c r="F52" s="19"/>
     </row>
     <row r="53" s="4" customFormat="1" spans="1:6">
-      <c r="A53" s="28"/>
+      <c r="A53" s="27"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="18"/>
@@ -1947,7 +1971,7 @@
       <c r="F53" s="19"/>
     </row>
     <row r="54" s="4" customFormat="1" spans="1:6">
-      <c r="A54" s="28"/>
+      <c r="A54" s="27"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="18"/>
@@ -1955,7 +1979,7 @@
       <c r="F54" s="19"/>
     </row>
     <row r="55" s="4" customFormat="1" spans="1:6">
-      <c r="A55" s="28"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="18"/>
@@ -1963,7 +1987,7 @@
       <c r="F55" s="19"/>
     </row>
     <row r="56" s="4" customFormat="1" spans="1:6">
-      <c r="A56" s="28"/>
+      <c r="A56" s="27"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="18"/>
@@ -1976,14 +2000,14 @@
       <c r="C57" s="17"/>
       <c r="D57" s="18"/>
       <c r="E57" s="17"/>
-      <c r="F57" s="29"/>
+      <c r="F57" s="28"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="30"/>
+      <c r="E58" s="29"/>
       <c r="F58" s="23"/>
     </row>
     <row r="59" spans="1:6">
@@ -1991,83 +2015,83 @@
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="30"/>
+      <c r="E59" s="29"/>
       <c r="F59" s="23"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="F60" s="32"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="F60" s="31"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="F61" s="32"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="F61" s="31"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="F62" s="32"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="F62" s="31"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="F63" s="32"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="F63" s="31"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="F64" s="32"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="F64" s="31"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="F65" s="32"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="F65" s="31"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="F66" s="32"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="F66" s="31"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="F67" s="32"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="F67" s="31"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="F68" s="32"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="F68" s="31"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="F69" s="32"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="F69" s="31"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="F70" s="32"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="F70" s="31"/>
     </row>
     <row r="71" spans="6:6">
-      <c r="F71" s="32"/>
+      <c r="F71" s="31"/>
     </row>
     <row r="72" spans="6:6">
-      <c r="F72" s="32"/>
+      <c r="F72" s="31"/>
     </row>
     <row r="73" spans="6:6">
-      <c r="F73" s="32"/>
+      <c r="F73" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
